--- a/tests/excel_examples/wadiz.xlsx
+++ b/tests/excel_examples/wadiz.xlsx
@@ -543,9 +543,9 @@
     <col min="7" max="7" style="8" width="17.14785714285714" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="8" width="11.290714285714287" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="10" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="8" width="6.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="8" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="8" width="6.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="8" width="38.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="8" width="45.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="8" width="17.005" customWidth="1" bestFit="1"/>
     <col min="13" max="13" style="8" width="11.290714285714287" customWidth="1" bestFit="1"/>
     <col min="14" max="14" style="10" width="18.290714285714284" customWidth="1" bestFit="1"/>
     <col min="15" max="15" style="10" width="8.290714285714287" customWidth="1" bestFit="1"/>
